--- a/public/data/profit/profit_table_equatorial_guinea.xlsx
+++ b/public/data/profit/profit_table_equatorial_guinea.xlsx
@@ -1820,13 +1820,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-72.92</v>
+        <v>17.85</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-270.74</v>
+        <v>-179.98</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1835,13 +1835,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>141651.25</v>
+        <v>1767.52</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>661.67</v>
+        <v>664.85</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-240.38</v>
+        <v>-177.98</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1862,13 +1862,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>82496.24</v>
+        <v>1227.27</v>
       </c>
       <c r="V9" t="n">
-        <v>987.86</v>
+        <v>1067.02</v>
       </c>
       <c r="W9" t="n">
-        <v>1986.84</v>
+        <v>2025.24</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-176.62</v>
+        <v>-71.91</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-210.67</v>
+        <v>-107.07</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-271.55</v>
+        <v>-200.26</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>181.61</v>
+        <v>225.95</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1980,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-197.78</v>
+        <v>-81.97</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-253.8</v>
+        <v>-140.95</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-291.82</v>
+        <v>-209.17</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>505.07</v>
+        <v>566.85</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -2060,13 +2060,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-132.5</v>
+        <v>-44.79</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-152.23</v>
+        <v>-72.36</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-206.44</v>
+        <v>-128.32</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.75</v>
+        <v>289.42</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-114.33</v>
+        <v>-25.16</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-133.67</v>
+        <v>-52.79</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-189.41</v>
+        <v>-109.62</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>319.77</v>
+        <v>368.01</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-54.35</v>
+        <v>13.51</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-202.39</v>
+        <v>-134.52</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-172.69</v>
+        <v>-126.03</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.02</v>
+        <v>1620.73</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -2300,13 +2300,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-61.85</v>
+        <v>2.03</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-171.17</v>
+        <v>-107.29</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-161.43</v>
+        <v>-117.37</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1278.57</v>
+        <v>1305.69</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-123.85</v>
+        <v>-45.54</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-176.2</v>
+        <v>-97.89</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-194.11</v>
+        <v>-138.48</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>580.3</v>
+        <v>614.53</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -2460,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-77.59</v>
+        <v>-12.44</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-177.15</v>
+        <v>-111.99</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-172.28</v>
+        <v>-127.49</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1212.68</v>
+        <v>1240.24</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2540,13 +2540,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-103.58</v>
+        <v>-36.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-187.73</v>
+        <v>-120.54</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-184.21</v>
+        <v>-138.03</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1097.37</v>
+        <v>1125.79</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2620,13 +2620,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-89.22</v>
+        <v>-19.16</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-206.34</v>
+        <v>-136.29</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-195.26</v>
+        <v>-146.98</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1297.49</v>
+        <v>1327.2</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2700,13 +2700,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-100.7</v>
+        <v>-12.28</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-101.92</v>
+        <v>-20.41</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-185.69</v>
+        <v>-65</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>182.76</v>
+        <v>308.22</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-187.24</v>
+        <v>-78.28</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>116.16</v>
+        <v>181.22</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2860,13 +2860,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-224.25</v>
+        <v>-79.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-304.75</v>
+        <v>-154.55</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-343.86</v>
+        <v>-181.89</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>893.5</v>
+        <v>1055.55</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -3011,7 +3011,7 @@
         <v>110</v>
       </c>
       <c r="D24" t="n">
-        <v>-168.51</v>
+        <v>-31.17</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -3020,13 +3020,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-83.45</v>
+        <v>-8.27</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-82.87</v>
+        <v>-20.26</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-173.43</v>
+        <v>-82.93</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-158.14</v>
+        <v>-71.83</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -3065,10 +3065,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>-67.14</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>164.81</v>
+        <v>247.93</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -3100,13 +3100,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-169.65</v>
+        <v>-42</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-212.56</v>
+        <v>-142.34</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-241.54</v>
+        <v>-140.84</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>838.66</v>
+        <v>1031.59</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3180,13 +3180,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-281.98</v>
+        <v>-13.58</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-309.46</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-417.04</v>
+        <v>-118.65</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-126.09</v>
+        <v>223.61</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -3260,13 +3260,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-88.16</v>
+        <v>-18.71</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-243.9</v>
+        <v>-174.45</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -3275,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1592.23</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1240.14</v>
+        <v>965.61</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>-210.58</v>
+        <v>-162.84</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -3302,13 +3302,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>930.27</v>
       </c>
       <c r="V27" t="n">
-        <v>1233.05</v>
+        <v>1297.87</v>
       </c>
       <c r="W27" t="n">
-        <v>1583.99</v>
+        <v>1613.38</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -3340,13 +3340,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-111.28</v>
+        <v>-29.74</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-179.19</v>
+        <v>-97.65</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-196.69</v>
+        <v>-139.32</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>853.17</v>
+        <v>888.47</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -3420,13 +3420,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-82.26</v>
+        <v>-8.96</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-215.12</v>
+        <v>-141.82</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-192.76</v>
+        <v>-142.37</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1504.87</v>
+        <v>1535.88</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-124.8</v>
+        <v>-40.97</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-170.03</v>
+        <v>-86.19</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>-201.8</v>
+        <v>-144.16</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>562.16</v>
+        <v>597.63</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3580,13 +3580,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-118.64</v>
+        <v>-42.52</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-222.01</v>
+        <v>-145.89</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-210.15</v>
+        <v>-157.82</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1266.45</v>
+        <v>1298.65</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-101</v>
+        <v>-16.89</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-208.42</v>
+        <v>-124.31</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-211.3</v>
+        <v>-151.63</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1149.79</v>
+        <v>1186.51</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3740,13 +3740,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-97.11</v>
+        <v>-19.41</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-247.45</v>
+        <v>-169.76</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3755,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>3694.48</v>
+        <v>1815.73</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>100.83</v>
+        <v>136.94</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>-222.44</v>
+        <v>-169.03</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3782,13 +3782,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1489.89</v>
+        <v>1000.2</v>
       </c>
       <c r="V33" t="n">
-        <v>243.52</v>
+        <v>340.68</v>
       </c>
       <c r="W33" t="n">
-        <v>1424.47</v>
+        <v>1457.34</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
